--- a/biology/Microbiologie/Alphachrysovirus/Alphachrysovirus.xlsx
+++ b/biology/Microbiologie/Alphachrysovirus/Alphachrysovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphachrysovirus est un genre de virus de la famille des Chrysoviridae, qui comprend 17 espèces acceptées par l'ICTV, dont l'espèce-type, Penicillium chrysogenum virus (virus du Penicillium chrysogenum). 
 Ce sont des virus à ARN à double brin, linéaire, classés dans le groupe III de la classification Baltimore.
-Le genre Alphachrysovirus est issu de la réorganisation en 2018 de la classification au sein de la famille des Chrysoviridae qui contenait un seul genre, Chrysovirus (9 espèces), de manière à créer deux nouveaux genres, censés constituer des clades monophylétiques, et à intégrer de nouvelles espèces non classées. Le genre Chrysovirus est renommé en Alphachrysovirus et reçoit huit espèces supplémentaires, et le genre Betachrysovirus reçoit également huit nouvelles espèces[1].
+Le genre Alphachrysovirus est issu de la réorganisation en 2018 de la classification au sein de la famille des Chrysoviridae qui contenait un seul genre, Chrysovirus (9 espèces), de manière à créer deux nouveaux genres, censés constituer des clades monophylétiques, et à intégrer de nouvelles espèces non classées. Le genre Chrysovirus est renommé en Alphachrysovirus et reçoit huit espèces supplémentaires, et le genre Betachrysovirus reçoit également huit nouvelles espèces.
 Ces virus infectent des champignons (mycovirus, 13 espèces) et des plantes (phytovirus, 4 espèces).
 Le génome est multipartite, divisé en trois ou quatre segments selon les espèces. Chaque segment d'ARN est encapsidé séparément.
 Les virions, non enveloppés, sont constitués d'une capside sphérique à symétrie icosaédrique du type pseudo-T=2.
@@ -516,9 +528,11 @@
           <t>Liste des non-classés et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (8 février 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (8 février 2021) :
 Amasya cherry disease associated chrysovirus
 Anthurium mosaic-associated chrysovirus
 Aspergillus fumigatus chrysovirus
